--- a/src/main/resources/testData/Country.xlsx
+++ b/src/main/resources/testData/Country.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PATAN MUNNA\IdeaProjects\CucumberHybridFramework\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PATAN MUNNA\IdeaProjects\CucumberHybridFramework\src\main\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EAFACE-9F8A-47E7-986F-CF05B8519FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9CECA9-C124-4C28-A959-6651CC88F593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6430" yWindow="1550" windowWidth="11370" windowHeight="6660" activeTab="1" xr2:uid="{B8DE1AE7-181B-40F9-9E09-A4983B2523A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B8DE1AE7-181B-40F9-9E09-A4983B2523A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Country" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Country" sheetId="2" r:id="rId2"/>
+    <sheet name="Testcases" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
   <si>
     <t>lastname</t>
   </si>
@@ -125,13 +126,154 @@
   </si>
   <si>
     <t>abc1@gmail.com</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Registration with Negative scenario</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>TestCaseDescription</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ExpectedResult</t>
+  </si>
+  <si>
+    <t>RunMode</t>
+  </si>
+  <si>
+    <t>Valid Login</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>Login successful</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Invalid Password</t>
+  </si>
+  <si>
+    <t>wrong123</t>
+  </si>
+  <si>
+    <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>Blank Username</t>
+  </si>
+  <si>
+    <t>Username is required</t>
+  </si>
+  <si>
+    <t>Some Other Scenario</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>testuser798@gmail.com</t>
+  </si>
+  <si>
+    <t>User@123</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>RunByMode</t>
+  </si>
+  <si>
+    <t>TC_ECOM_001</t>
+  </si>
+  <si>
+    <t>User Registration</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>TC_ECOM_002</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Automated</t>
+  </si>
+  <si>
+    <t>TC_ECOM_003</t>
+  </si>
+  <si>
+    <t>Product Search</t>
+  </si>
+  <si>
+    <t>TC_ECOM_004</t>
+  </si>
+  <si>
+    <t>Shopping Cart</t>
+  </si>
+  <si>
+    <t>TC_ECOM_005</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>TC_ECOM_006</t>
+  </si>
+  <si>
+    <t>Order Management</t>
+  </si>
+  <si>
+    <t>Login with valid credential</t>
+  </si>
+  <si>
+    <t>Verify user can search for a Login with invalid credential</t>
+  </si>
+  <si>
+    <t>Verify Amount on Shopping Carts</t>
+  </si>
+  <si>
+    <t>Verify Product name on Shopping Carts</t>
+  </si>
+  <si>
+    <t>verify Product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +301,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -174,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -197,12 +347,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,6 +387,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -538,72 +725,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A377FDA0-EB0C-4E15-876C-6531C12DBB94}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A100FB-6987-4937-AEB1-891CACE3E6B5}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="43.36328125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A377FDA0-EB0C-4E15-876C-6531C12DBB94}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.08984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.453125" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.54296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="44.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="40.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="10" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -611,23 +977,24 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -635,23 +1002,24 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -659,78 +1027,78 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -746,76 +1114,136 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{1EBE4F6F-B6E1-4075-9E30-C830D534AB11}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{EDE966C9-400D-445D-9F3D-3F02FE023FF3}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{B085CA40-8ECB-4CA0-8FC5-FFB020E28C35}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{1EBE4F6F-B6E1-4075-9E30-C830D534AB11}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{EDE966C9-400D-445D-9F3D-3F02FE023FF3}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{B085CA40-8ECB-4CA0-8FC5-FFB020E28C35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A100FB-6987-4937-AEB1-891CACE3E6B5}">
-  <dimension ref="A1:H2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EB28E5-B4B7-4451-ABE7-3E340491D6ED}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="26.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>26</v>
+      <c r="B2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{032A8EBA-17A2-4B0E-A07B-F9F4BE4E37F5}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{6A1E2835-900E-48C1-99C6-5225111B62F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/testData/Country.xlsx
+++ b/src/main/resources/testData/Country.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PATAN MUNNA\IdeaProjects\CucumberHybridFramework\src\main\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9CECA9-C124-4C28-A959-6651CC88F593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E352222-4297-48CB-964E-03E6F66D2507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B8DE1AE7-181B-40F9-9E09-A4983B2523A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B8DE1AE7-181B-40F9-9E09-A4983B2523A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="Country" sheetId="2" r:id="rId2"/>
-    <sheet name="Testcases" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>lastname</t>
   </si>
@@ -135,72 +134,6 @@
   </si>
   <si>
     <t>TestCaseID</t>
-  </si>
-  <si>
-    <t>TestCaseDescription</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>ExpectedResult</t>
-  </si>
-  <si>
-    <t>RunMode</t>
-  </si>
-  <si>
-    <t>Valid Login</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>Login successful</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>Invalid Password</t>
-  </si>
-  <si>
-    <t>wrong123</t>
-  </si>
-  <si>
-    <t>Invalid credentials</t>
-  </si>
-  <si>
-    <t>Blank Username</t>
-  </si>
-  <si>
-    <t>Username is required</t>
-  </si>
-  <si>
-    <t>Some Other Scenario</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>Failure</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>testuser798@gmail.com</t>
-  </si>
-  <si>
-    <t>User@123</t>
   </si>
   <si>
     <t>Test Description</t>
@@ -365,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -395,15 +328,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -728,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A100FB-6987-4937-AEB1-891CACE3E6B5}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -741,17 +665,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>57</v>
+      <c r="B1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -759,112 +683,112 @@
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>60</v>
+      <c r="C2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>63</v>
+      <c r="A3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>60</v>
+      <c r="A4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>60</v>
+      <c r="A5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>60</v>
+      <c r="A6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>60</v>
+      <c r="A7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -875,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A377FDA0-EB0C-4E15-876C-6531C12DBB94}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1121,129 +1045,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EB28E5-B4B7-4451-ABE7-3E340491D6ED}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="26.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{032A8EBA-17A2-4B0E-A07B-F9F4BE4E37F5}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{6A1E2835-900E-48C1-99C6-5225111B62F9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>